--- a/biology/Histoire de la zoologie et de la botanique/Fredy_Archila/Fredy_Archila.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fredy_Archila/Fredy_Archila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fredy Leonel Archila Morales, né le 1er juillet 1973, est un ingénieur agronome et botaniste guatémaltèque, spécialiste des orchidées. Fredy Archila Morales est le fils d'Óscar Archila Euter, lui-même orchidologue et fondateur de la Estación Experimental de Orquídeas de la familia Archilla (Station expérimentale d'orchidées de la famille Archila[1]) à Cobán.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fredy Leonel Archila Morales, né le 1er juillet 1973, est un ingénieur agronome et botaniste guatémaltèque, spécialiste des orchidées. Fredy Archila Morales est le fils d'Óscar Archila Euter, lui-même orchidologue et fondateur de la Estación Experimental de Orquídeas de la familia Archilla (Station expérimentale d'orchidées de la famille Archila) à Cobán.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Monografía del género Lepanthes Sw. (Orchidaceae) para Guatemala, éd. Kamar, 281 pages, 2010  (ISBN 9992272805)
 Biodiversity and biogeographic significance of the Sierra Chinajá in Alta Verapaz, Guatemala: a first look, in: International Journal of Biodiversity Science &amp; Management, 2009
